--- a/simulator Code/results.xlsx
+++ b/simulator Code/results.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term2\scm\final-project\SCM-finalProject\simulator Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CEB029-1D11-4A23-94F0-445F89040CC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7C5EC-3507-42C6-8D37-A75C9B0F5CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A2E42A0-5031-49FD-AB0F-4C38D8895FD2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>order id</t>
   </si>
@@ -150,12 +150,6 @@
     <t>fail!</t>
   </si>
   <si>
-    <t>7h</t>
-  </si>
-  <si>
-    <t>45 h</t>
-  </si>
-  <si>
     <r>
       <t>sazgar</t>
     </r>
@@ -176,22 +170,48 @@
 Hard=[WD]</t>
   </si>
   <si>
-    <t>40 h</t>
-  </si>
-  <si>
-    <t>50 h</t>
-  </si>
-  <si>
-    <t>60 h</t>
-  </si>
-  <si>
-    <t>78 h</t>
-  </si>
-  <si>
-    <t>90 h</t>
-  </si>
-  <si>
-    <t>62 h</t>
+    <t>30 h</t>
+  </si>
+  <si>
+    <t>total orders</t>
+  </si>
+  <si>
+    <t>completed orders</t>
+  </si>
+  <si>
+    <t>failed orders</t>
+  </si>
+  <si>
+    <t>average time</t>
+  </si>
+  <si>
+    <t>max time</t>
+  </si>
+  <si>
+    <t>min time</t>
+  </si>
+  <si>
+    <t>use of resource</t>
+  </si>
+  <si>
+    <t>shortage of resource</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>cpu=[intel]
+Ram=[HyperX]
+Hard=[WD]</t>
+  </si>
+  <si>
+    <t>32 h</t>
+  </si>
+  <si>
+    <t>7 h</t>
   </si>
 </sst>
 </file>
@@ -259,7 +279,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -270,6 +301,2607 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A6A1-4471-88C1-D7A7659755E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A6A1-4471-88C1-D7A7659755E4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$4:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>completed orders</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>failed orders</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17DC-44E6-9CED-8674434E04E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$7:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>average time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>max time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>min time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>53.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-480F-4117-8F59-5A717AF61CEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="622112840"/>
+        <c:axId val="622116120"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="622112840"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622116120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622116120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622112840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>resource</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2C32-4C3F-8FD4-128C7ED3D189}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2C32-4C3F-8FD4-128C7ED3D189}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$10:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>use of resource</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shortage of resource</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$10:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-664A-42A5-BA04-CDDCDFCEC1E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="360"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>464820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9A0F71-CD8A-4A92-B696-1BCFE242E27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B626E0-104A-4BF3-85B2-9DE07F2174C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A64B20-99E7-4C2B-B18A-437EAB818686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4DF7DE2-2002-45C3-9D80-10D5B6CFA855}" name="Table2" displayName="Table2" ref="J2:K11" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="J2:K11" xr:uid="{5E4D8E84-97DC-436F-B1DC-930FA874E844}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B915E84A-E9F8-4A16-973F-56D3AC11E243}" name="metrics" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5FAE335A-5244-41A8-8DDF-A4952CA7ADFE}" name="value" dataDxfId="0">
+      <calculatedColumnFormula>coun</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,10 +3201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCE870B-E319-488E-89CD-3CD62C7F495F}">
-  <dimension ref="A1:G21"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,9 +3214,11 @@
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -625,11 +3260,17 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
+      <c r="G2" s="1">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -648,11 +3289,18 @@
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1">
+        <f>COUNT(A2:A12)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -671,11 +3319,17 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -694,11 +3348,17 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -717,11 +3377,17 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -740,11 +3406,17 @@
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
+      <c r="G7" s="1">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>53.18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -763,11 +3435,17 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1">
+        <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -778,7 +3456,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -786,16 +3464,22 @@
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
+      <c r="G9" s="1">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -809,11 +3493,17 @@
       <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -821,10 +3511,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -832,20 +3522,40 @@
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
+      <c r="G11" s="1">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -854,7 +3564,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -863,7 +3573,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -872,7 +3582,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -928,5 +3638,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/simulator Code/results.xlsx
+++ b/simulator Code/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\term2\scm\final-project\SCM-finalProject\simulator Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD7C5EC-3507-42C6-8D37-A75C9B0F5CB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549BA031-1DF4-41DB-8533-8984E4093F02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A2E42A0-5031-49FD-AB0F-4C38D8895FD2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>order id</t>
   </si>
@@ -203,15 +203,15 @@
     <t>metrics</t>
   </si>
   <si>
-    <t>cpu=[intel]
+    <t>32 h</t>
+  </si>
+  <si>
+    <t>7 h</t>
+  </si>
+  <si>
+    <t>cpu=[AMD]
 Ram=[HyperX]
 Hard=[WD]</t>
-  </si>
-  <si>
-    <t>32 h</t>
-  </si>
-  <si>
-    <t>7 h</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -702,7 +702,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>53.18</c:v>
+                  <c:v>53.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>90</c:v>
@@ -1024,7 +1024,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3296,8 +3296,8 @@
         <v>31</v>
       </c>
       <c r="K3" s="1">
-        <f>COUNT(A2:A12)</f>
-        <v>11</v>
+        <f>COUNT(A2:A13)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3326,7 +3326,7 @@
         <v>32</v>
       </c>
       <c r="K4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>585</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="1">
-        <v>53.18</v>
+        <v>53.91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
@@ -3456,7 +3456,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -3500,7 +3500,7 @@
         <v>37</v>
       </c>
       <c r="K10" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3540,10 +3540,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -3555,14 +3555,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
